--- a/custom sim/vehicle_files/FEB_SN3_30kW.xlsx
+++ b/custom sim/vehicle_files/FEB_SN3_30kW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EJDRO\OneDrive\Documents\GitHub\FEBSim\custom sim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\GitHub\FEBSim\custom sim\vehicle_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DBC587-352A-48B6-9C60-0A6564970F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD83E22-D0EA-4A98-A5D4-763117BA95E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -339,13 +339,13 @@
     <t>FEB car</t>
   </si>
   <si>
-    <t>207.7+54+88.5</t>
-  </si>
-  <si>
     <t>FEB_SN3_30kW</t>
   </si>
   <si>
     <t>whole bun</t>
+  </si>
+  <si>
+    <t>with aero, no driver;     245.0</t>
   </si>
 </sst>
 </file>
@@ -2246,20 +2246,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.47265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>45</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>38</v>
@@ -2293,7 +2293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
@@ -2314,16 +2314,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <v>335.2</v>
+        <v>325</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="11" t="s">
         <v>4</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>14</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="1" t="s">
         <v>74</v>
@@ -2400,7 +2400,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>72</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="11" t="s">
         <v>23</v>
@@ -2467,7 +2467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>20</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -2499,7 +2499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="1" t="s">
         <v>78</v>
@@ -2514,7 +2514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -2529,7 +2529,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="1" t="s">
         <v>27</v>
@@ -2544,7 +2544,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="1" t="s">
         <v>28</v>
@@ -2559,7 +2559,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="11" t="s">
         <v>29</v>
@@ -2574,7 +2574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>30</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="1" t="s">
         <v>31</v>
@@ -2604,7 +2604,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="1" t="s">
         <v>36</v>
@@ -2619,7 +2619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
@@ -2634,7 +2634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -2649,7 +2649,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
@@ -2664,7 +2664,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="1" t="s">
         <v>39</v>
@@ -2679,7 +2679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="1" t="s">
         <v>40</v>
@@ -2694,7 +2694,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="1" t="s">
         <v>41</v>
@@ -2709,7 +2709,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="1" t="s">
         <v>42</v>
@@ -2724,7 +2724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="11" t="s">
         <v>43</v>
@@ -2739,7 +2739,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>50</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="1" t="s">
         <v>52</v>
@@ -2769,7 +2769,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="11" t="s">
         <v>53</v>
@@ -2784,7 +2784,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>55</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="4" t="s">
         <v>79</v>
@@ -2814,7 +2814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="4" t="s">
         <v>75</v>
@@ -2829,7 +2829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="4" t="s">
         <v>76</v>
@@ -2844,7 +2844,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="4" t="s">
         <v>77</v>
@@ -2859,7 +2859,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="1" t="s">
         <v>60</v>
@@ -2874,7 +2874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="1" t="s">
         <v>61</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="26" t="s">
         <v>62</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="26" t="s">
         <v>63</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="E44" s="20"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="26" t="s">
         <v>64</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="26" t="s">
         <v>65</v>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="E46" s="20"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="26" t="s">
         <v>66</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="26" t="s">
         <v>67</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="26" t="s">
         <v>68</v>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="26" t="s">
         <v>69</v>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="26" t="s">
         <v>70</v>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="B52" s="27" t="s">
         <v>71</v>
@@ -3022,13 +3022,13 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30">
         <v>7.0159375299999993E-2</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>230.2535546</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>50.662052770000003</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>157.92182149999999</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>265.18159020000002</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>372.44135899999998</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>479.70112769999997</v>
       </c>
@@ -3084,10 +3084,10 @@
         <v>230.21973080000001</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>586.96089640000002</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>694.22066510000002</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>801.78514910000001</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>230.3330272</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>908.74020259999998</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>1015.999971</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>1123.25974</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>1230.519509</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>1331.075542</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>230.21973080000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <v>1438.335311</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>220.41915</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>1545.5950789999999</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>205.12270710000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>1652.8548479999999</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>191.8115478</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>1760.114617</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>180.12272809999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
         <v>1867.374386</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>169.7766924</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30">
         <v>1974.6341540000001</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>160.5546253</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
         <v>2081.8939230000001</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>152.28280520000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30">
         <v>2189.1536919999999</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>144.8215572</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <v>2296.4134610000001</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>138.05730199999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30">
         <v>2403.3685139999998</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>131.913456</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30">
         <v>2510.9329980000002</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>126.2624876</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30">
         <v>2612.6063199999999</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>121.3488019</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
         <v>2720.7599209999998</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>116.5250356</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
         <v>2826.0085690000001</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>112.1853097</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <v>2933.268337</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>108.0830699</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>3040.5281060000002</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>104.27025690000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
         <v>3140.0879020000002</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>100.9642585</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <v>3210.749726</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>98.742248290000006</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
         <v>3309.794817</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>95.787401990000006</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30">
         <v>3415.9372969999999</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>92.811026400000003</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>3523.1970649999998</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>89.985499189999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>3630.4568340000001</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>87.326929129999996</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>3737.7166029999998</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>84.820942919999993</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>3844.9763720000001</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>82.454771100000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>3945.5324049999999</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>80.353324749999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>4053.7063189999999</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>78.209081190000006</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>4160.0519420000001</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>76.209780809999998</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>4267.3117110000003</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>74.294232089999994</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>4374.5714799999996</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>72.472617740000004</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>4480.9171029999998</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>70.752624819999994</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>4589.0910169999997</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>69.084846099999993</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>4694.3396650000004</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>67.535940999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>4801.4775479999998</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>66.028976180000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>4907.5184550000004</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>64.602232180000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>5014.7782239999997</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>63.22047207</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>5122.0379929999999</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>61.896582389999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>5227.957015</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>60.642550370000002</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>5326.5019270000003</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>59.520610519999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>5433.4569810000003</v>
       </c>

--- a/custom sim/vehicle_files/FEB_SN3_30kW.xlsx
+++ b/custom sim/vehicle_files/FEB_SN3_30kW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\GitHub\FEBSim\custom sim\vehicle_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD83E22-D0EA-4A98-A5D4-763117BA95E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A916D-680E-44FB-B70B-22E79ED652F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>General</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>with aero, no driver;     245.0</t>
+  </si>
+  <si>
+    <t>Assumed 0.6-0.7 for accuracy</t>
   </si>
 </sst>
 </file>
@@ -2246,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>6</v>
@@ -2475,7 +2478,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="8">
-        <v>266.7</v>
+        <v>203.2</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>8</v>
@@ -2582,12 +2585,14 @@
         <v>37</v>
       </c>
       <c r="C22" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
@@ -2595,7 +2600,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="8">
-        <v>266.7</v>
+        <v>203.2</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>

--- a/custom sim/vehicle_files/FEB_SN3_30kW.xlsx
+++ b/custom sim/vehicle_files/FEB_SN3_30kW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\GitHub\FEBSim\custom sim\vehicle_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A916D-680E-44FB-B70B-22E79ED652F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B227A6-AC2A-443C-A812-2B53FBA38EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2249,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>38</v>
